--- a/Circuit/PERfECT-BLE/BOM.xlsx
+++ b/Circuit/PERfECT-BLE/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj\PERfECT\PERfECT\Circuit\PERfECT-PRO\v2\PERfECT-PRO2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj\PERfECT\PERfECT\Circuit\PERfECT-BLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BF0D45-3CAE-4722-8234-0FBBBEE7160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9585233-03C1-4A47-B961-A6D16466D528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,23 +25,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>R 4.7K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10pinfcc</t>
-  </si>
-  <si>
-    <t>FFC3B07-10-T</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>MCP73831T-2ACI/OT</t>
+  </si>
+  <si>
+    <t>AP2112(3.3V)</t>
+  </si>
+  <si>
+    <t>DMG2305</t>
+  </si>
+  <si>
+    <t>MBR120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+FFC3B07-10-T</t>
+  </si>
+  <si>
+    <t>4.7K 电阻</t>
+  </si>
+  <si>
+    <t>22 电阻</t>
+  </si>
+  <si>
+    <t>物料</t>
+  </si>
+  <si>
+    <t>个数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,41 +79,21 @@
       <color rgb="FF444444"/>
       <name val="Roboto"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -105,8 +103,8 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,39 +386,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
-      <c r="A2" t="s">
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>5051101092</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:E2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
